--- a/medicine/Pharmacie/Delpharm/Delpharm.xlsx
+++ b/medicine/Pharmacie/Delpharm/Delpharm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Delpharm est une entreprise française de sous-traitance pharmaceutique, appelé également façonnier ou CDMO. Le siège est basé à Boulogne-Billancourt. L'entreprise emploie près de 6000 employés, pour un chiffre d'affaires d'environ 950 millions d'euros.
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delpharm est initialement une filiale d'Aguettant, une entreprise pharmaceutique lyonnaise spécialisée dans les traitements à injecter. Son histoire commence avec le rachat de Delmas Perfusions, entreprise comptant 120 salariés en Indre-et-Loire à Tours, spécialisée dans les médicaments injectables à bas coûts[1]. À la suite de cela, l'entreprise acquiert une usine de Syntex dans l'Essonne[1].
-En 2002, Delpharm acquiert une usine de Pharmacia située à Évreux et comptant 100 salariés[1].
-En 2007, Xavier Castelli et Sébastien Aguettant, les dirigeants de Delpharm, en complément de Acto Mezzanine, acquièrent Delpharm à Activa Capital[2].
-En 2011, Delpharm acquiert une partie du site Bayer de Gaillard, partie du site qui emploie 340 personnes[3].
-En 2017, Delpharm acquiert le site Roche de Segrate, où travaillent 350 personnes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delpharm est initialement une filiale d'Aguettant, une entreprise pharmaceutique lyonnaise spécialisée dans les traitements à injecter. Son histoire commence avec le rachat de Delmas Perfusions, entreprise comptant 120 salariés en Indre-et-Loire à Tours, spécialisée dans les médicaments injectables à bas coûts. À la suite de cela, l'entreprise acquiert une usine de Syntex dans l'Essonne.
+En 2002, Delpharm acquiert une usine de Pharmacia située à Évreux et comptant 100 salariés.
+En 2007, Xavier Castelli et Sébastien Aguettant, les dirigeants de Delpharm, en complément de Acto Mezzanine, acquièrent Delpharm à Activa Capital.
+En 2011, Delpharm acquiert une partie du site Bayer de Gaillard, partie du site qui emploie 340 personnes.
+En 2017, Delpharm acquiert le site Roche de Segrate, où travaillent 350 personnes.
 Fin 2019, Delpharm rachète cinq sites du groupe pharmaceutique Famar (Bladel, Saint-Rémy-sur-Avre, Orléans, Montréal, L'Aigle) et compte maintenant 4 700 salariés et un total de 17 usines dans le monde : 12 en France, une en Belgique, une aux Pays-Bas, deux en Italie et une au Canada.
-En novembre 2020, l'entreprise investit 10 millions d'euros après la signature d'un contrat avec Pfizer et BioNTech en vue de la production dès avril 2021 sur son site de Saint-Rémy-sur-Avre (Eure-et-Loir) de dizaines de millions de doses du potentiel premier vaccin contre le Covid-19[4],[5],[6].
-En février 2021, Delpharm investit dans une nouvelle unité de production sur son site de Lyon, destinée à fabriquer des tests diagnostique du SARS-CoV-2. La capacité de production pourra atteindre 3 millions de tests par mois. Il s'agit de tests créés par la société française BioSpeedia[7].
-Le 7 avril 2021, Delpharm a commencé à conditionner du vaccin Pfizer/BioNTech (Tozinaméran)[8].
+En novembre 2020, l'entreprise investit 10 millions d'euros après la signature d'un contrat avec Pfizer et BioNTech en vue de la production dès avril 2021 sur son site de Saint-Rémy-sur-Avre (Eure-et-Loir) de dizaines de millions de doses du potentiel premier vaccin contre le Covid-19.
+En février 2021, Delpharm investit dans une nouvelle unité de production sur son site de Lyon, destinée à fabriquer des tests diagnostique du SARS-CoV-2. La capacité de production pourra atteindre 3 millions de tests par mois. Il s'agit de tests créés par la société française BioSpeedia.
+Le 7 avril 2021, Delpharm a commencé à conditionner du vaccin Pfizer/BioNTech (Tozinaméran).
 Le 1er mars 2022, Delpharm acquiert le site Sandoz de Boucherville.
 Le 22 février 2023, Delpharm reprend la société CARELIDE, société mouvalloise en redressement judiciaire depuis novembre 2022, unique site de production en France de poches de perfusion. Une nouvelle entité DELPHARM Mouvaux est créée. 390 emplois sur 399 sont préservés.
 L'ambition de Delpharm Mouvaux est de moderniser et doubler la capacité de fabrication via un plan d’investissement de 46,8 M€ sur 5 ans. 
